--- a/simple_with_OPF/Generation Data.xlsx
+++ b/simple_with_OPF/Generation Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de7c5f4e9a006291/Documents/Optimisation in MS/assignement/optimization_code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\simple_with_OPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5DA3ABEC-A534-4AEE-BB54-34097DCB3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF0E0C7F-325D-435E-B990-DC2E08266A82}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E7E082-9B7B-413E-8258-8C1A5D05B4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6405" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,20 +387,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>152</v>
+      </c>
+      <c r="D3" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>350</v>
+      </c>
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>591</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>215</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,80 +516,80 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>400</v>
+      </c>
+      <c r="D3" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>152</v>
-      </c>
-      <c r="D3" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>350</v>
-      </c>
-      <c r="D4" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>591</v>
-      </c>
-      <c r="D5" s="1">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>660</v>
+      </c>
+      <c r="D6" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>215</v>
-      </c>
-      <c r="D6" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -499,112 +600,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1">
-        <v>155</v>
-      </c>
-      <c r="D2" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>400</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
-        <v>400</v>
-      </c>
-      <c r="D4" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1">
-        <v>300</v>
-      </c>
-      <c r="D5" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1">
-        <v>660</v>
-      </c>
-      <c r="D6" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -748,15 +753,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -764,6 +760,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BCEB3E-2236-4D28-844D-4CC52B255655}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -781,14 +785,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
   <ds:schemaRefs>

--- a/simple_with_OPF/Generation Data.xlsx
+++ b/simple_with_OPF/Generation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\simple_with_OPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E7E082-9B7B-413E-8258-8C1A5D05B4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA6D940-6BA6-48D3-AE4B-FC82F43B9D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6405" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25200" yWindow="-3660" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -422,6 +422,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
+        <f>152</f>
         <v>152</v>
       </c>
       <c r="D2" s="1">
@@ -436,6 +437,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <f>152</f>
         <v>152</v>
       </c>
       <c r="D3" s="1">
@@ -450,6 +452,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
+        <f>350</f>
         <v>350</v>
       </c>
       <c r="D4" s="1">
@@ -464,6 +467,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="1">
+        <f>591</f>
         <v>591</v>
       </c>
       <c r="D5" s="1">
@@ -478,6 +482,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
+        <f>215</f>
         <v>215</v>
       </c>
       <c r="D6" s="1">
@@ -499,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC9C34-CEA6-40FB-88E5-8DD177C1D408}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +615,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100AEDD2C58C424B74499DE9AAA38D1F837" ma:contentTypeVersion="4" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="702f087d0813d5dfa38d019e1cfe3dbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59a1f2c9-9aa0-4700-bb29-973d29195b9e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f1c68433e2c2319791049a96af9fb53" ns2:_="">
     <xsd:import namespace="59a1f2c9-9aa0-4700-bb29-973d29195b9e"/>
@@ -753,12 +764,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E2F5C7-B52B-483C-B6AD-926B66F164B9}">
   <ds:schemaRefs>
@@ -768,6 +773,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BCEB3E-2236-4D28-844D-4CC52B255655}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -783,13 +797,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36AF9D7E-4190-47C9-A25E-E341BDEC68ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/simple_with_OPF/Generation Data.xlsx
+++ b/simple_with_OPF/Generation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\simple_with_OPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA6D940-6BA6-48D3-AE4B-FC82F43B9D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB02518C-3003-4160-9957-CCDD675E23C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="-3660" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-11340" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation_investor" sheetId="1" r:id="rId1"/>
